--- a/biology/Botanique/Butia_yatay/Butia_yatay.xlsx
+++ b/biology/Botanique/Butia_yatay/Butia_yatay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butia argentin
 Le Butia yatay (Mart.) Becc. (1916), ou Butia argentin, est un palmier qui appartient à la famille des Arécacées et au genre Butia.
@@ -514,12 +526,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille des Arecaceae
 Sous-famille des Arecoideae
 Tribu des Cocoseae
-Sous-tribu des Attaleinae [2].</t>
+Sous-tribu des Attaleinae .</t>
         </is>
       </c>
     </row>
@@ -547,7 +561,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sud du Brésil, Nord de Uruguay, Nord-Est de l'Argentine dans les savanes à faible altitude, où poussent des arbres de faible taille et des hautes herbes. Il pousse sur des sols secs, sablonneux et pauvres, où il forme des colonies assez denses et très étendues.
 Le climat est subtropical à tempéré doux, avec des hivers assez frais, et des périodes sèches parfois assez longues.
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Stipe : Solitaire et robuste, il peut atteindre 8 à 10 mètres de hauteur. Il est de couleur grise et conserve longtemps la base des pétioles fanées.
 Feuilles : Elles sont pennées. Elles sont plus courtes, régulières et récurvées que les feuilles du Butia capitata. Elles ont une couleur bleutée.
@@ -614,9 +632,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est l'une des rares plantes dont le nom scientifique est complètement dérivé des langues amérindiennes. Butia vient d'un nom vernaculaire brésilien local probablement dérivé du Tupi ancien ba atí, qui signifie 'chose épineuse', qui fait probablement référence aux épines le long des bords du pétiole de la plupart des espèces. L'épithète spécifique yatay est tirée du mot en Langue guaranie pour ce palmier, yata'i, qui  fait référence au « petit fruit dur » [3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'une des rares plantes dont le nom scientifique est complètement dérivé des langues amérindiennes. Butia vient d'un nom vernaculaire brésilien local probablement dérivé du Tupi ancien ba atí, qui signifie 'chose épineuse', qui fait probablement référence aux épines le long des bords du pétiole de la plupart des espèces. L'épithète spécifique yatay est tirée du mot en Langue guaranie pour ce palmier, yata'i, qui  fait référence au « petit fruit dur » ,.
 </t>
         </is>
       </c>
@@ -645,10 +665,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Butia argentin est un palmier à croissance lente qui apprécie le soleil et les sols riches et bien drainés.
-Cette espèce préfère les sols bien drainés, légèrement alcalins ou neutres, et beaucoup de soleil. Il nécessite beaucoup d'humidité pendant la saison de croissance, mais en hiver, il tolère bien la sécheresse et le froid, supportant des températures de plusieurs degrés en dessous de zéro, ce qui en fait l'un des palmiers a feuilles pennées les mieux adaptés aux climats continentaux avec Jubaea chilensis. Il tolère bien le vent[3].
+Cette espèce préfère les sols bien drainés, légèrement alcalins ou neutres, et beaucoup de soleil. Il nécessite beaucoup d'humidité pendant la saison de croissance, mais en hiver, il tolère bien la sécheresse et le froid, supportant des températures de plusieurs degrés en dessous de zéro, ce qui en fait l'un des palmiers a feuilles pennées les mieux adaptés aux climats continentaux avec Jubaea chilensis. Il tolère bien le vent.
 Les graines ont besoin de chaleur et d'humidité pour germer, un processus qui peut être suspendu pendant plusieurs mois dans des conditions défavorables
 En France, il est possible de l'acclimater sur la côte Atlantique et sur le pourtour méditerranéen.
 </t>
